--- a/public/data/lime/lime_table_cameroon.xlsx
+++ b/public/data/lime/lime_table_cameroon.xlsx
@@ -1384,16 +1384,16 @@
         <v>88</v>
       </c>
       <c r="D2" t="n">
-        <v>6.32</v>
+        <v>5.9</v>
       </c>
       <c r="E2" t="n">
-        <v>5.29</v>
+        <v>4.45</v>
       </c>
       <c r="F2" t="n">
-        <v>4.15</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>0.94</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1402,13 +1402,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.72</v>
+        <v>4.18</v>
       </c>
       <c r="K2" t="n">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.78</v>
+        <v>0.79</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -1431,13 +1431,13 @@
         <v>89</v>
       </c>
       <c r="D3" t="n">
-        <v>5.38</v>
+        <v>4.95</v>
       </c>
       <c r="E3" t="n">
-        <v>4.46</v>
+        <v>3.53</v>
       </c>
       <c r="F3" t="n">
-        <v>3.38</v>
+        <v>1.91</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1449,13 +1449,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>5.67</v>
+        <v>4.64</v>
       </c>
       <c r="K3" t="n">
-        <v>4.46</v>
+        <v>2.23</v>
       </c>
       <c r="L3" t="n">
-        <v>3.05</v>
+        <v>0.64</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -1478,13 +1478,13 @@
         <v>90</v>
       </c>
       <c r="D4" t="n">
-        <v>5.28</v>
+        <v>4.89</v>
       </c>
       <c r="E4" t="n">
-        <v>4.26</v>
+        <v>3.42</v>
       </c>
       <c r="F4" t="n">
-        <v>3.08</v>
+        <v>1.76</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>4.56</v>
+        <v>4.06</v>
       </c>
       <c r="K4" t="n">
-        <v>3.19</v>
+        <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>1.59</v>
+        <v>0.29</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         <v>91</v>
       </c>
       <c r="D5" t="n">
-        <v>8.16</v>
+        <v>7.37</v>
       </c>
       <c r="E5" t="n">
-        <v>7.06</v>
+        <v>5.36</v>
       </c>
       <c r="F5" t="n">
-        <v>5.77</v>
+        <v>3.05</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -1543,19 +1543,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>5.54</v>
+        <v>4.19</v>
       </c>
       <c r="K5" t="n">
-        <v>4.14</v>
+        <v>2.12</v>
       </c>
       <c r="L5" t="n">
-        <v>2.66</v>
+        <v>0.91</v>
       </c>
       <c r="M5" t="n">
-        <v>2.62</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -1572,13 +1572,13 @@
         <v>93</v>
       </c>
       <c r="D6" t="n">
-        <v>3.06</v>
+        <v>2.74</v>
       </c>
       <c r="E6" t="n">
-        <v>2.17</v>
+        <v>1.51</v>
       </c>
       <c r="F6" t="n">
-        <v>1.17</v>
+        <v>0.41</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>3.28</v>
+        <v>2.89</v>
       </c>
       <c r="K6" t="n">
-        <v>2.26</v>
+        <v>1.43</v>
       </c>
       <c r="L6" t="n">
-        <v>1.09</v>
+        <v>0.23</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>94</v>
       </c>
       <c r="D7" t="n">
-        <v>3.16</v>
+        <v>2.9</v>
       </c>
       <c r="E7" t="n">
-        <v>2.07</v>
+        <v>1.52</v>
       </c>
       <c r="F7" t="n">
-        <v>0.88</v>
+        <v>0.43</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1637,13 +1637,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.96</v>
+        <v>2.71</v>
       </c>
       <c r="K7" t="n">
-        <v>1.72</v>
+        <v>1.2</v>
       </c>
       <c r="L7" t="n">
-        <v>0.48</v>
+        <v>0.13</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1666,13 +1666,13 @@
         <v>95</v>
       </c>
       <c r="D8" t="n">
-        <v>3.89</v>
+        <v>3.52</v>
       </c>
       <c r="E8" t="n">
-        <v>2.75</v>
+        <v>1.97</v>
       </c>
       <c r="F8" t="n">
-        <v>1.48</v>
+        <v>0.7</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1684,16 +1684,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>3.45</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>2.04</v>
+        <v>1.18</v>
       </c>
       <c r="L8" t="n">
-        <v>0.66</v>
+        <v>0.2</v>
       </c>
       <c r="M8" t="n">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1713,16 +1713,16 @@
         <v>96</v>
       </c>
       <c r="D9" t="n">
-        <v>3.81</v>
+        <v>3.48</v>
       </c>
       <c r="E9" t="n">
-        <v>2.62</v>
+        <v>1.93</v>
       </c>
       <c r="F9" t="n">
-        <v>1.33</v>
+        <v>0.73</v>
       </c>
       <c r="G9" t="n">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1731,13 +1731,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.62</v>
+        <v>3.18</v>
       </c>
       <c r="K9" t="n">
-        <v>2.23</v>
+        <v>1.43</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0.54</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1760,13 +1760,13 @@
         <v>97</v>
       </c>
       <c r="D10" t="n">
-        <v>3.03</v>
+        <v>2.81</v>
       </c>
       <c r="E10" t="n">
-        <v>2.24</v>
+        <v>1.77</v>
       </c>
       <c r="F10" t="n">
-        <v>1.33</v>
+        <v>0.64</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1778,13 +1778,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3.26</v>
+        <v>2.96</v>
       </c>
       <c r="K10" t="n">
-        <v>2.26</v>
+        <v>1.61</v>
       </c>
       <c r="L10" t="n">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1807,13 +1807,13 @@
         <v>98</v>
       </c>
       <c r="D11" t="n">
-        <v>3.22</v>
+        <v>2.98</v>
       </c>
       <c r="E11" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="F11" t="n">
-        <v>1.24</v>
+        <v>0.55</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1825,13 +1825,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>2.77</v>
+        <v>2.36</v>
       </c>
       <c r="K11" t="n">
-        <v>1.57</v>
+        <v>0.69</v>
       </c>
       <c r="L11" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1854,13 +1854,13 @@
         <v>99</v>
       </c>
       <c r="D12" t="n">
-        <v>3.28</v>
+        <v>2.96</v>
       </c>
       <c r="E12" t="n">
-        <v>2.32</v>
+        <v>1.63</v>
       </c>
       <c r="F12" t="n">
-        <v>1.2</v>
+        <v>0.27</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1872,13 +1872,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>3.53</v>
+        <v>3.12</v>
       </c>
       <c r="K12" t="n">
-        <v>2.38</v>
+        <v>1.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.08</v>
+        <v>0.18</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1901,13 +1901,13 @@
         <v>100</v>
       </c>
       <c r="D13" t="n">
-        <v>4.05</v>
+        <v>3.77</v>
       </c>
       <c r="E13" t="n">
-        <v>3.15</v>
+        <v>2.54</v>
       </c>
       <c r="F13" t="n">
-        <v>2.1</v>
+        <v>1.24</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1919,13 +1919,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>4.39</v>
+        <v>3.98</v>
       </c>
       <c r="K13" t="n">
-        <v>3</v>
+        <v>2.12</v>
       </c>
       <c r="L13" t="n">
-        <v>1.44</v>
+        <v>0.26</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1948,13 +1948,13 @@
         <v>101</v>
       </c>
       <c r="D14" t="n">
-        <v>2.9</v>
+        <v>2.67</v>
       </c>
       <c r="E14" t="n">
-        <v>2.09</v>
+        <v>1.6</v>
       </c>
       <c r="F14" t="n">
-        <v>1.15</v>
+        <v>0.5</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1966,13 +1966,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>5.46</v>
+        <v>4.9</v>
       </c>
       <c r="K14" t="n">
-        <v>4.38</v>
+        <v>3.19</v>
       </c>
       <c r="L14" t="n">
-        <v>3.12</v>
+        <v>1.24</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1995,13 +1995,13 @@
         <v>102</v>
       </c>
       <c r="D15" t="n">
-        <v>3.17</v>
+        <v>2.98</v>
       </c>
       <c r="E15" t="n">
-        <v>2.41</v>
+        <v>1.98</v>
       </c>
       <c r="F15" t="n">
-        <v>1.53</v>
+        <v>0.86</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -2013,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>3.42</v>
+        <v>3.04</v>
       </c>
       <c r="K15" t="n">
-        <v>2.15</v>
+        <v>1.34</v>
       </c>
       <c r="L15" t="n">
-        <v>0.79</v>
+        <v>0.16</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -2042,16 +2042,16 @@
         <v>104</v>
       </c>
       <c r="D16" t="n">
-        <v>2.22</v>
+        <v>1.89</v>
       </c>
       <c r="E16" t="n">
-        <v>1.05</v>
+        <v>0.48</v>
       </c>
       <c r="F16" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -2060,16 +2060,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.73</v>
+        <v>1.4</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5</v>
+        <v>0.16</v>
       </c>
       <c r="L16" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -2089,13 +2089,13 @@
         <v>105</v>
       </c>
       <c r="D17" t="n">
-        <v>3.02</v>
+        <v>2.77</v>
       </c>
       <c r="E17" t="n">
-        <v>2.08</v>
+        <v>1.54</v>
       </c>
       <c r="F17" t="n">
-        <v>1.06</v>
+        <v>0.51</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -2107,13 +2107,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>3.03</v>
+        <v>2.68</v>
       </c>
       <c r="K17" t="n">
-        <v>1.69</v>
+        <v>1.07</v>
       </c>
       <c r="L17" t="n">
-        <v>0.62</v>
+        <v>0.15</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -2136,13 +2136,13 @@
         <v>106</v>
       </c>
       <c r="D18" t="n">
-        <v>5.51</v>
+        <v>5.13</v>
       </c>
       <c r="E18" t="n">
-        <v>4.36</v>
+        <v>3.55</v>
       </c>
       <c r="F18" t="n">
-        <v>3.04</v>
+        <v>1.9</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2154,13 +2154,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>5.35</v>
+        <v>4.93</v>
       </c>
       <c r="K18" t="n">
-        <v>4.17</v>
+        <v>3.41</v>
       </c>
       <c r="L18" t="n">
-        <v>3.02</v>
+        <v>2.08</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -2183,16 +2183,16 @@
         <v>107</v>
       </c>
       <c r="D19" t="n">
-        <v>4.64</v>
+        <v>4.22</v>
       </c>
       <c r="E19" t="n">
-        <v>3.47</v>
+        <v>2.68</v>
       </c>
       <c r="F19" t="n">
-        <v>2.28</v>
+        <v>1.48</v>
       </c>
       <c r="G19" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2201,16 +2201,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>5.79</v>
+        <v>5.36</v>
       </c>
       <c r="K19" t="n">
-        <v>4.54</v>
+        <v>3.72</v>
       </c>
       <c r="L19" t="n">
-        <v>3.24</v>
+        <v>2.18</v>
       </c>
       <c r="M19" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -2248,13 +2248,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1.79</v>
+        <v>1.39</v>
       </c>
       <c r="K20" t="n">
-        <v>0.62</v>
+        <v>0.22</v>
       </c>
       <c r="L20" t="n">
-        <v>0.07</v>
+        <v>0.01</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -2277,16 +2277,16 @@
         <v>110</v>
       </c>
       <c r="D21" t="n">
-        <v>4.22</v>
+        <v>3.55</v>
       </c>
       <c r="E21" t="n">
-        <v>2.53</v>
+        <v>1.71</v>
       </c>
       <c r="F21" t="n">
-        <v>1.21</v>
+        <v>0.39</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2295,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>3.54</v>
+        <v>3.02</v>
       </c>
       <c r="K21" t="n">
-        <v>2.04</v>
+        <v>1.27</v>
       </c>
       <c r="L21" t="n">
-        <v>0.85</v>
+        <v>0.27</v>
       </c>
       <c r="M21" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -2371,16 +2371,16 @@
         <v>112</v>
       </c>
       <c r="D23" t="n">
-        <v>2.92</v>
+        <v>2.44</v>
       </c>
       <c r="E23" t="n">
-        <v>1.89</v>
+        <v>1.31</v>
       </c>
       <c r="F23" t="n">
-        <v>1.12</v>
+        <v>0.51</v>
       </c>
       <c r="G23" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2389,16 +2389,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>3.16</v>
+        <v>2.72</v>
       </c>
       <c r="K23" t="n">
-        <v>1.97</v>
+        <v>1.32</v>
       </c>
       <c r="L23" t="n">
-        <v>1.01</v>
+        <v>0.41</v>
       </c>
       <c r="M23" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>114</v>
       </c>
       <c r="D24" t="n">
-        <v>7.63</v>
+        <v>7.06</v>
       </c>
       <c r="E24" t="n">
-        <v>6.24</v>
+        <v>5.17</v>
       </c>
       <c r="F24" t="n">
-        <v>4.8</v>
+        <v>3.43</v>
       </c>
       <c r="G24" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2436,13 +2436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>6.58</v>
+        <v>5.74</v>
       </c>
       <c r="K24" t="n">
-        <v>4.42</v>
+        <v>2.84</v>
       </c>
       <c r="L24" t="n">
-        <v>2.27</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -2465,16 +2465,16 @@
         <v>115</v>
       </c>
       <c r="D25" t="n">
-        <v>5.27</v>
+        <v>4.62</v>
       </c>
       <c r="E25" t="n">
-        <v>3.76</v>
+        <v>2.63</v>
       </c>
       <c r="F25" t="n">
-        <v>2.26</v>
+        <v>1.07</v>
       </c>
       <c r="G25" t="n">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2483,16 +2483,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>9.73</v>
+        <v>8.99</v>
       </c>
       <c r="K25" t="n">
-        <v>7.73</v>
+        <v>6.14</v>
       </c>
       <c r="L25" t="n">
-        <v>5.4</v>
+        <v>3.27</v>
       </c>
       <c r="M25" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -2512,13 +2512,13 @@
         <v>116</v>
       </c>
       <c r="D26" t="n">
-        <v>7.62</v>
+        <v>6.98</v>
       </c>
       <c r="E26" t="n">
-        <v>6.09</v>
+        <v>4.72</v>
       </c>
       <c r="F26" t="n">
-        <v>4.3</v>
+        <v>2.31</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2559,13 +2559,13 @@
         <v>117</v>
       </c>
       <c r="D27" t="n">
-        <v>6.34</v>
+        <v>5.91</v>
       </c>
       <c r="E27" t="n">
-        <v>5.21</v>
+        <v>4.29</v>
       </c>
       <c r="F27" t="n">
-        <v>3.9</v>
+        <v>2.45</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2577,13 +2577,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>6.17</v>
+        <v>5.77</v>
       </c>
       <c r="K27" t="n">
-        <v>4.86</v>
+        <v>4</v>
       </c>
       <c r="L27" t="n">
-        <v>3.33</v>
+        <v>2.07</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -2606,31 +2606,31 @@
         <v>118</v>
       </c>
       <c r="D28" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
         <v>5.91</v>
       </c>
-      <c r="E28" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="F28" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>6.47</v>
-      </c>
       <c r="K28" t="n">
-        <v>4.76</v>
+        <v>3.56</v>
       </c>
       <c r="L28" t="n">
-        <v>2.79</v>
+        <v>1.59</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -2653,13 +2653,13 @@
         <v>119</v>
       </c>
       <c r="D29" t="n">
-        <v>6.89</v>
+        <v>6.14</v>
       </c>
       <c r="E29" t="n">
-        <v>5.55</v>
+        <v>3.95</v>
       </c>
       <c r="F29" t="n">
-        <v>4</v>
+        <v>1.57</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2671,13 +2671,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>7.57</v>
+        <v>6.28</v>
       </c>
       <c r="K29" t="n">
-        <v>6</v>
+        <v>3.23</v>
       </c>
       <c r="L29" t="n">
-        <v>4.17</v>
+        <v>0.22</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -2700,16 +2700,16 @@
         <v>121</v>
       </c>
       <c r="D30" t="n">
-        <v>5.23</v>
+        <v>4.85</v>
       </c>
       <c r="E30" t="n">
-        <v>4.07</v>
+        <v>3.29</v>
       </c>
       <c r="F30" t="n">
-        <v>2.78</v>
+        <v>1.76</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2718,16 +2718,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>4.53</v>
+        <v>4.09</v>
       </c>
       <c r="K30" t="n">
-        <v>3.31</v>
+        <v>2.43</v>
       </c>
       <c r="L30" t="n">
-        <v>1.99</v>
+        <v>1.05</v>
       </c>
       <c r="M30" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -2747,16 +2747,16 @@
         <v>122</v>
       </c>
       <c r="D31" t="n">
-        <v>5.93</v>
+        <v>5.49</v>
       </c>
       <c r="E31" t="n">
-        <v>4.66</v>
+        <v>3.76</v>
       </c>
       <c r="F31" t="n">
-        <v>3.22</v>
+        <v>1.91</v>
       </c>
       <c r="G31" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2765,16 +2765,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>4.7</v>
+        <v>4.19</v>
       </c>
       <c r="K31" t="n">
-        <v>3.3</v>
+        <v>2.33</v>
       </c>
       <c r="L31" t="n">
-        <v>1.85</v>
+        <v>0.76</v>
       </c>
       <c r="M31" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -2794,13 +2794,13 @@
         <v>123</v>
       </c>
       <c r="D32" t="n">
-        <v>8.46</v>
+        <v>8.09</v>
       </c>
       <c r="E32" t="n">
-        <v>7.16</v>
+        <v>6.37</v>
       </c>
       <c r="F32" t="n">
-        <v>5.64</v>
+        <v>4.4</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -2812,16 +2812,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>7.17</v>
+        <v>6.72</v>
       </c>
       <c r="K32" t="n">
-        <v>5.76</v>
+        <v>4.81</v>
       </c>
       <c r="L32" t="n">
-        <v>4.14</v>
+        <v>2.76</v>
       </c>
       <c r="M32" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -2841,13 +2841,13 @@
         <v>124</v>
       </c>
       <c r="D33" t="n">
-        <v>6.18</v>
+        <v>5.82</v>
       </c>
       <c r="E33" t="n">
-        <v>5.05</v>
+        <v>4.32</v>
       </c>
       <c r="F33" t="n">
-        <v>3.82</v>
+        <v>2.85</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -2859,16 +2859,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>4.98</v>
+        <v>4.57</v>
       </c>
       <c r="K33" t="n">
-        <v>3.82</v>
+        <v>3.02</v>
       </c>
       <c r="L33" t="n">
-        <v>2.58</v>
+        <v>1.65</v>
       </c>
       <c r="M33" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -2888,16 +2888,16 @@
         <v>125</v>
       </c>
       <c r="D34" t="n">
-        <v>4.73</v>
+        <v>4.3</v>
       </c>
       <c r="E34" t="n">
-        <v>3.47</v>
+        <v>2.6</v>
       </c>
       <c r="F34" t="n">
-        <v>2.1</v>
+        <v>1.07</v>
       </c>
       <c r="G34" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2906,16 +2906,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>3.93</v>
+        <v>3.42</v>
       </c>
       <c r="K34" t="n">
-        <v>2.57</v>
+        <v>1.73</v>
       </c>
       <c r="L34" t="n">
-        <v>1.36</v>
+        <v>0.59</v>
       </c>
       <c r="M34" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -3217,13 +3217,13 @@
         <v>134</v>
       </c>
       <c r="D41" t="n">
-        <v>11.91</v>
+        <v>11.49</v>
       </c>
       <c r="E41" t="n">
-        <v>10.36</v>
+        <v>9.46</v>
       </c>
       <c r="F41" t="n">
-        <v>8.55</v>
+        <v>7.12</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3235,13 +3235,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>8.34</v>
+        <v>7.87</v>
       </c>
       <c r="K41" t="n">
-        <v>6.79</v>
+        <v>5.77</v>
       </c>
       <c r="L41" t="n">
-        <v>4.97</v>
+        <v>3.41</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -3264,13 +3264,13 @@
         <v>135</v>
       </c>
       <c r="D42" t="n">
-        <v>11.57</v>
+        <v>11.22</v>
       </c>
       <c r="E42" t="n">
-        <v>10.26</v>
+        <v>9.52</v>
       </c>
       <c r="F42" t="n">
-        <v>8.74</v>
+        <v>7.54</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3282,13 +3282,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>9.79</v>
+        <v>9.4</v>
       </c>
       <c r="K42" t="n">
-        <v>8.44</v>
+        <v>7.61</v>
       </c>
       <c r="L42" t="n">
-        <v>6.87</v>
+        <v>5.57</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -3311,13 +3311,13 @@
         <v>136</v>
       </c>
       <c r="D43" t="n">
-        <v>11.82</v>
+        <v>11.44</v>
       </c>
       <c r="E43" t="n">
-        <v>10.34</v>
+        <v>9.53</v>
       </c>
       <c r="F43" t="n">
-        <v>8.63</v>
+        <v>7.38</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3329,13 +3329,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>7.29</v>
+        <v>6.81</v>
       </c>
       <c r="K43" t="n">
-        <v>5.67</v>
+        <v>4.74</v>
       </c>
       <c r="L43" t="n">
-        <v>4.07</v>
+        <v>3.15</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -3358,31 +3358,31 @@
         <v>137</v>
       </c>
       <c r="D44" t="n">
-        <v>10.94</v>
+        <v>10.57</v>
       </c>
       <c r="E44" t="n">
-        <v>9.52</v>
+        <v>8.72</v>
       </c>
       <c r="F44" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
         <v>7.87</v>
       </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>8.3</v>
-      </c>
       <c r="K44" t="n">
-        <v>6.86</v>
+        <v>5.94</v>
       </c>
       <c r="L44" t="n">
-        <v>5.21</v>
+        <v>3.88</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -3405,13 +3405,13 @@
         <v>138</v>
       </c>
       <c r="D45" t="n">
-        <v>14.3</v>
+        <v>13.95</v>
       </c>
       <c r="E45" t="n">
-        <v>12.87</v>
+        <v>12.13</v>
       </c>
       <c r="F45" t="n">
-        <v>11.21</v>
+        <v>10.01</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -3423,13 +3423,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>9.23</v>
+        <v>8.79</v>
       </c>
       <c r="K45" t="n">
-        <v>7.79</v>
+        <v>6.84</v>
       </c>
       <c r="L45" t="n">
-        <v>6.12</v>
+        <v>4.57</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -3452,13 +3452,13 @@
         <v>139</v>
       </c>
       <c r="D46" t="n">
-        <v>10.34</v>
+        <v>9.96</v>
       </c>
       <c r="E46" t="n">
-        <v>9.09</v>
+        <v>8.28</v>
       </c>
       <c r="F46" t="n">
-        <v>7.63</v>
+        <v>6.32</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -3470,13 +3470,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>6.35</v>
+        <v>5.94</v>
       </c>
       <c r="K46" t="n">
-        <v>5.04</v>
+        <v>4.15</v>
       </c>
       <c r="L46" t="n">
-        <v>3.52</v>
+        <v>2.12</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -3499,13 +3499,13 @@
         <v>140</v>
       </c>
       <c r="D47" t="n">
-        <v>12.54</v>
+        <v>12.16</v>
       </c>
       <c r="E47" t="n">
-        <v>11.06</v>
+        <v>10.25</v>
       </c>
       <c r="F47" t="n">
-        <v>9.33</v>
+        <v>8.02</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -3517,13 +3517,13 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>11.03</v>
+        <v>10.29</v>
       </c>
       <c r="K47" t="n">
-        <v>8.89</v>
+        <v>7.34</v>
       </c>
       <c r="L47" t="n">
-        <v>6.39</v>
+        <v>4.47</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
@@ -3546,13 +3546,13 @@
         <v>142</v>
       </c>
       <c r="D48" t="n">
-        <v>13.15</v>
+        <v>12.76</v>
       </c>
       <c r="E48" t="n">
-        <v>11.78</v>
+        <v>10.94</v>
       </c>
       <c r="F48" t="n">
-        <v>10.17</v>
+        <v>8.82</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -3564,13 +3564,13 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>9.7</v>
+        <v>8.89</v>
       </c>
       <c r="K48" t="n">
-        <v>7.51</v>
+        <v>5.77</v>
       </c>
       <c r="L48" t="n">
-        <v>4.95</v>
+        <v>2.57</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
@@ -3593,13 +3593,13 @@
         <v>143</v>
       </c>
       <c r="D49" t="n">
-        <v>6.91</v>
+        <v>6.48</v>
       </c>
       <c r="E49" t="n">
-        <v>5.67</v>
+        <v>4.75</v>
       </c>
       <c r="F49" t="n">
-        <v>4.22</v>
+        <v>2.83</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -3611,13 +3611,13 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>4.41</v>
+        <v>3.99</v>
       </c>
       <c r="K49" t="n">
-        <v>3.18</v>
+        <v>2.26</v>
       </c>
       <c r="L49" t="n">
-        <v>1.74</v>
+        <v>0.53</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
@@ -3640,13 +3640,13 @@
         <v>144</v>
       </c>
       <c r="D50" t="n">
-        <v>9.72</v>
+        <v>9.35</v>
       </c>
       <c r="E50" t="n">
-        <v>8.53</v>
+        <v>7.75</v>
       </c>
       <c r="F50" t="n">
-        <v>7.14</v>
+        <v>5.88</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -3658,13 +3658,13 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>7.76</v>
+        <v>7.37</v>
       </c>
       <c r="K50" t="n">
-        <v>6.64</v>
+        <v>5.8</v>
       </c>
       <c r="L50" t="n">
-        <v>5.33</v>
+        <v>3.98</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
@@ -3687,13 +3687,13 @@
         <v>145</v>
       </c>
       <c r="D51" t="n">
-        <v>11.01</v>
+        <v>10.65</v>
       </c>
       <c r="E51" t="n">
-        <v>9.76</v>
+        <v>8.97</v>
       </c>
       <c r="F51" t="n">
-        <v>8.3</v>
+        <v>7.02</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -3705,13 +3705,13 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>11.19</v>
+        <v>10.79</v>
       </c>
       <c r="K51" t="n">
-        <v>9.84</v>
+        <v>8.99</v>
       </c>
       <c r="L51" t="n">
-        <v>8.28</v>
+        <v>6.89</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
@@ -3734,13 +3734,13 @@
         <v>146</v>
       </c>
       <c r="D52" t="n">
-        <v>10.87</v>
+        <v>10.41</v>
       </c>
       <c r="E52" t="n">
-        <v>9.61</v>
+        <v>8.63</v>
       </c>
       <c r="F52" t="n">
-        <v>8.14</v>
+        <v>6.65</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -3752,13 +3752,13 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>5.85</v>
+        <v>5.21</v>
       </c>
       <c r="K52" t="n">
-        <v>4.32</v>
+        <v>2.94</v>
       </c>
       <c r="L52" t="n">
-        <v>2.55</v>
+        <v>0.9</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
@@ -3781,13 +3781,13 @@
         <v>147</v>
       </c>
       <c r="D53" t="n">
-        <v>12.91</v>
+        <v>12.57</v>
       </c>
       <c r="E53" t="n">
-        <v>11.66</v>
+        <v>10.93</v>
       </c>
       <c r="F53" t="n">
-        <v>10.2</v>
+        <v>9.02</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -3799,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>12.06</v>
+        <v>11.65</v>
       </c>
       <c r="K53" t="n">
-        <v>10.63</v>
+        <v>9.75</v>
       </c>
       <c r="L53" t="n">
-        <v>8.96</v>
+        <v>7.57</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
@@ -3828,13 +3828,13 @@
         <v>148</v>
       </c>
       <c r="D54" t="n">
-        <v>7.77</v>
+        <v>7.39</v>
       </c>
       <c r="E54" t="n">
-        <v>6.54</v>
+        <v>5.72</v>
       </c>
       <c r="F54" t="n">
-        <v>5.11</v>
+        <v>3.87</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -3846,13 +3846,13 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>9.23</v>
+        <v>8.85</v>
       </c>
       <c r="K54" t="n">
-        <v>7.9</v>
+        <v>7.1</v>
       </c>
       <c r="L54" t="n">
-        <v>6.36</v>
+        <v>5.15</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
@@ -3875,13 +3875,13 @@
         <v>149</v>
       </c>
       <c r="D55" t="n">
-        <v>9.89</v>
+        <v>9.56</v>
       </c>
       <c r="E55" t="n">
-        <v>8.53</v>
+        <v>7.84</v>
       </c>
       <c r="F55" t="n">
-        <v>6.96</v>
+        <v>5.84</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -3893,13 +3893,13 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>9.12</v>
+        <v>8.62</v>
       </c>
       <c r="K55" t="n">
-        <v>7.51</v>
+        <v>6.45</v>
       </c>
       <c r="L55" t="n">
-        <v>5.66</v>
+        <v>4.19</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
@@ -3922,13 +3922,13 @@
         <v>151</v>
       </c>
       <c r="D56" t="n">
-        <v>3.01</v>
+        <v>2.83</v>
       </c>
       <c r="E56" t="n">
-        <v>2.29</v>
+        <v>1.9</v>
       </c>
       <c r="F56" t="n">
-        <v>1.45</v>
+        <v>0.83</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -3940,13 +3940,13 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>3.88</v>
+        <v>3.54</v>
       </c>
       <c r="K56" t="n">
-        <v>2.88</v>
+        <v>2.15</v>
       </c>
       <c r="L56" t="n">
-        <v>1.71</v>
+        <v>0.52</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
@@ -3969,13 +3969,13 @@
         <v>152</v>
       </c>
       <c r="D57" t="n">
-        <v>3.86</v>
+        <v>3.7</v>
       </c>
       <c r="E57" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="F57" t="n">
-        <v>2.21</v>
+        <v>1.67</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -3987,13 +3987,13 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>3.42</v>
+        <v>3.04</v>
       </c>
       <c r="K57" t="n">
-        <v>1.83</v>
+        <v>1.01</v>
       </c>
       <c r="L57" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
@@ -4016,13 +4016,13 @@
         <v>153</v>
       </c>
       <c r="D58" t="n">
-        <v>4.69</v>
+        <v>4.43</v>
       </c>
       <c r="E58" t="n">
-        <v>3.95</v>
+        <v>3.4</v>
       </c>
       <c r="F58" t="n">
-        <v>3.09</v>
+        <v>2.24</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -4034,13 +4034,13 @@
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>3.25</v>
+        <v>2.74</v>
       </c>
       <c r="K58" t="n">
-        <v>2.22</v>
+        <v>1.49</v>
       </c>
       <c r="L58" t="n">
-        <v>1.26</v>
+        <v>0.68</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
@@ -4063,13 +4063,13 @@
         <v>154</v>
       </c>
       <c r="D59" t="n">
-        <v>4.09</v>
+        <v>3.93</v>
       </c>
       <c r="E59" t="n">
-        <v>3.35</v>
+        <v>3.02</v>
       </c>
       <c r="F59" t="n">
-        <v>2.48</v>
+        <v>1.95</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
